--- a/organizational/OrangeTeam_BurndownChart.xlsx
+++ b/organizational/OrangeTeam_BurndownChart.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcdowe623\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan048\Documents\GitHub\Invasive\organizational\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -274,6 +274,12 @@
                 <c:pt idx="5">
                   <c:v>7</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -410,11 +416,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="315565872"/>
-        <c:axId val="315566656"/>
+        <c:axId val="217234656"/>
+        <c:axId val="217233480"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="315565872"/>
+        <c:axId val="217234656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -457,14 +463,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="315566656"/>
+        <c:crossAx val="217233480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="315566656"/>
+        <c:axId val="217233480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -516,7 +522,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="315565872"/>
+        <c:crossAx val="217234656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1152,7 +1158,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="83" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="92" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1163,7 +1169,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8675783" cy="6300271"/>
+    <xdr:ext cx="8655326" cy="6284429"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -1452,7 +1458,7 @@
   <dimension ref="A1:Y11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1549,8 +1555,12 @@
       <c r="G3" s="2">
         <v>7</v>
       </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
+      <c r="H3" s="2">
+        <v>7</v>
+      </c>
+      <c r="I3" s="2">
+        <v>5.5</v>
+      </c>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
@@ -1574,7 +1584,7 @@
         <v>9.2307692307692299</v>
       </c>
       <c r="D4" s="3">
-        <f t="shared" ref="D4:W4" si="0">SUM(C4-$B$9)</f>
+        <f t="shared" ref="D4:O4" si="0">SUM(C4-$B$9)</f>
         <v>8.4615384615384599</v>
       </c>
       <c r="E4" s="3">
